--- a/Apps formula (KB).xlsx
+++ b/Apps formula (KB).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Michelle Files\Clients\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58588167-8FA2-421A-A7D4-7A9D7D04C340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2D9C631-093A-4D76-9F5D-E429DC936823}"/>
+    <workbookView windowWidth="22103" windowHeight="9935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User interface" sheetId="5" r:id="rId1"/>
@@ -26,183 +20,164 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Excess Amt'!$D$6:$E$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{1EC44584-25C4-406D-AE61-3E5865F589C4}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 editable</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EA913C09-46C7-42DB-802E-850148CE7A37}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 editable</t>
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{51173851-EECB-4FA2-A8A0-4663ABEAA9AB}">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 editable</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{B6299EA4-1038-453C-B3D8-E1A38C4D4035}">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 editable</t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{84185DE2-7E04-4E84-B638-D214441F6B02}">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 add a "view", when click on "view", will see customer details</t>
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{3DDB79B5-E859-4B1F-941B-3A9D6A4E0E9D}">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 will appear "SOLD OUT"</t>
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{C64B0BD1-F45D-4EAE-AB21-0B2F755369BE}">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>User:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 will appear "SOLD OUT"</t>
@@ -214,9 +189,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{C37F7833-AD02-4654-8B62-5160345A5FA7}" keepAlive="1" name="Query - Table1" description="Connection to the 'Table1' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table1]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Query - Table1" description="Connection to the 'Table1' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Table1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table1]" commandType="2"/>
   </connection>
 </connections>
 </file>
@@ -224,49 +199,271 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
+    <t>* Starting / Ending time on top</t>
+  </si>
+  <si>
+    <t>Starting : 09:00</t>
+  </si>
+  <si>
+    <t>when time close(18:01 - 08:59), this appears</t>
+  </si>
+  <si>
+    <t>Countdown:  ___ hours left</t>
+  </si>
+  <si>
+    <t>Ending : 18:00</t>
+  </si>
+  <si>
+    <t>when time open(09:00 - 18:00), this appears</t>
+  </si>
+  <si>
+    <t>Add : Admin Actions</t>
+  </si>
+  <si>
+    <t>* top left utiliies icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for forward ticket to WhatsApp/others</t>
+  </si>
+  <si>
+    <t>* keep history</t>
+  </si>
+  <si>
+    <t>Apps name to change to "NOTE"</t>
+  </si>
+  <si>
+    <t>(when time closes(18:01 - 08:59), this appears)</t>
+  </si>
+  <si>
+    <t>(when time opens(09:00 - 18:00), this appears)</t>
+  </si>
+  <si>
+    <t>Remove the results</t>
+  </si>
+  <si>
+    <t>Points Movement</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Access Amount</t>
+  </si>
+  <si>
+    <t>Customer list</t>
+  </si>
+  <si>
+    <t>Point balance</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Spent</t>
+  </si>
+  <si>
+    <t>Point available</t>
+  </si>
+  <si>
+    <t>016919999</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>016920000</t>
+  </si>
+  <si>
+    <t>016920001</t>
+  </si>
+  <si>
+    <t>016920002</t>
+  </si>
+  <si>
+    <t>016920003</t>
+  </si>
+  <si>
+    <t>016920004</t>
+  </si>
+  <si>
+    <t>* Point to be used to deduct total amount spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw Date </t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>26.02.2023</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Magnum</t>
+  </si>
+  <si>
+    <t>Owner acceptable limit</t>
+  </si>
+  <si>
+    <t>Betting limit</t>
+  </si>
+  <si>
+    <t>Set limit - Big</t>
+  </si>
+  <si>
+    <t>Sold out limit - Big</t>
+  </si>
+  <si>
+    <t>Set limit - Small</t>
+  </si>
+  <si>
+    <t>Sold out limit - Small</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Note : if customer key in amount bigger than BETTING LIMIT, system will appear "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOLD OUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Total customer</t>
+  </si>
+  <si>
+    <t>Betting No.</t>
+  </si>
+  <si>
     <t>Big</t>
   </si>
   <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Excess amount</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>* add feature - top left utiliies icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw Date : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   for forward report to WhatsApp/others</t>
+  </si>
+  <si>
+    <t>Company:</t>
+  </si>
+  <si>
+    <t>(Note : This list is extracted from "Activities", only appears with amount in Big or Small; zero in Big and Small won't appear.)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Task A</t>
+  </si>
+  <si>
+    <t>Big/small</t>
+  </si>
+  <si>
+    <t>calculation include "Pau"</t>
+  </si>
+  <si>
+    <t>eg. 1000</t>
+  </si>
+  <si>
+    <t>if client bet  1002 : Big 5 + Small 5 + Pau</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Daily Sales Report</t>
+  </si>
+  <si>
+    <t>Product   :</t>
+  </si>
+  <si>
+    <t>Date         :</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ticket No.</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Total RM Value</t>
+  </si>
+  <si>
+    <t>Formulas</t>
+  </si>
+  <si>
+    <t>Cumulative by number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount of product </t>
   </si>
   <si>
     <t>Client</t>
-  </si>
-  <si>
-    <t>Current Daily</t>
-  </si>
-  <si>
-    <t>Current Daily Excess</t>
-  </si>
-  <si>
-    <t>Name of person</t>
-  </si>
-  <si>
-    <t>Number Chosen</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Amt still available</t>
-  </si>
-  <si>
-    <t>move to next…</t>
-  </si>
-  <si>
-    <t>Customer 1</t>
-  </si>
-  <si>
-    <t>Customer 2</t>
-  </si>
-  <si>
-    <t>Customer 3</t>
-  </si>
-  <si>
-    <t>Customer 4</t>
-  </si>
-  <si>
-    <t>Customer 5</t>
   </si>
   <si>
     <r>
@@ -276,7 +473,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">* </t>
@@ -287,288 +484,69 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Daily Lottery</t>
     </r>
   </si>
   <si>
-    <t>Cumulative by number</t>
-  </si>
-  <si>
-    <t>Small</t>
+    <t>(RM) Total</t>
   </si>
   <si>
     <t>Cumulative</t>
   </si>
   <si>
-    <t>(RM) Total</t>
-  </si>
-  <si>
-    <t>Formulas</t>
-  </si>
-  <si>
-    <t>Total RM Value</t>
+    <t>Current Daily</t>
+  </si>
+  <si>
+    <t>Current Daily Excess</t>
+  </si>
+  <si>
+    <t>Name of person</t>
+  </si>
+  <si>
+    <t>Number Chosen</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Amt still available</t>
+  </si>
+  <si>
+    <t>move to next…</t>
+  </si>
+  <si>
+    <t>Customer 3</t>
+  </si>
+  <si>
+    <t>Customer 4</t>
+  </si>
+  <si>
+    <t>Customer 5</t>
   </si>
   <si>
     <t>* I do not know how to write a formula that would filter/search for a specifc number whose total monetary value is less than or equal to RM100</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Magnum</t>
-  </si>
-  <si>
-    <t>Daily Sales Report</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Product   :</t>
-  </si>
-  <si>
-    <t>Date         :</t>
-  </si>
-  <si>
-    <t>* Starting / Ending time on top</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Ticket No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draw Date : </t>
-  </si>
-  <si>
-    <t>Starting : 09:00</t>
-  </si>
-  <si>
-    <t>* top left utiliies icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  for forward ticket to WhatsApp/others</t>
-  </si>
-  <si>
-    <t>Task A</t>
-  </si>
-  <si>
-    <t>Big/small</t>
-  </si>
-  <si>
-    <t>calculation include "Pau"</t>
-  </si>
-  <si>
-    <t>if client bet  1002 : Big 5 + Small 5 + Pau</t>
-  </si>
-  <si>
-    <t>eg. 1000</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>Set limit - Big</t>
-  </si>
-  <si>
-    <t>Set limit - Small</t>
-  </si>
-  <si>
-    <t>Sold out limit - Big</t>
-  </si>
-  <si>
-    <t>Sold out limit - Small</t>
-  </si>
-  <si>
-    <t>Betting No.</t>
-  </si>
-  <si>
-    <t>26.02.2023</t>
-  </si>
-  <si>
-    <t>Company:</t>
-  </si>
-  <si>
-    <t>Customer list</t>
-  </si>
-  <si>
-    <t>016919999</t>
-  </si>
-  <si>
-    <t>016920000</t>
-  </si>
-  <si>
-    <t>016920001</t>
-  </si>
-  <si>
-    <t>016920002</t>
-  </si>
-  <si>
-    <t>016920003</t>
-  </si>
-  <si>
-    <t>016920004</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>* Point to be used to deduct total amount spent</t>
-  </si>
-  <si>
-    <t>Point balance</t>
-  </si>
-  <si>
-    <t>Reload</t>
-  </si>
-  <si>
-    <t>Spent</t>
-  </si>
-  <si>
-    <t>Point available</t>
-  </si>
-  <si>
-    <t>* keep history</t>
-  </si>
-  <si>
-    <t>Ending : 18:00</t>
-  </si>
-  <si>
-    <t>Countdown:  ___ hours left</t>
-  </si>
-  <si>
-    <t>when time close(18:01 - 08:59), this appears</t>
-  </si>
-  <si>
-    <t>when time open(09:00 - 18:00), this appears</t>
-  </si>
-  <si>
-    <t>Owner acceptable limit</t>
-  </si>
-  <si>
-    <t>Betting limit</t>
-  </si>
-  <si>
-    <t>* add feature - top left utiliies icon</t>
-  </si>
-  <si>
-    <t>Apps name to change to "NOTE"</t>
-  </si>
-  <si>
-    <t>Remove the results</t>
-  </si>
-  <si>
-    <t>(when time closes(18:01 - 08:59), this appears)</t>
-  </si>
-  <si>
-    <t>(when time opens(09:00 - 18:00), this appears)</t>
-  </si>
-  <si>
-    <t>Add : Admin Actions</t>
-  </si>
-  <si>
-    <t>Activities</t>
-  </si>
-  <si>
-    <t>Access Amount</t>
-  </si>
-  <si>
-    <t>Points Movement</t>
-  </si>
-  <si>
-    <r>
-      <t>*Note : if customer key in amount bigger than BETTING LIMIT, system will appear "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SOLD OUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draw Date </t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>(Note : This list is extracted from "Activities", only appears with amount in Big or Small; zero in Big and Small won't appear.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   for forward report to WhatsApp/others</t>
-  </si>
-  <si>
-    <t>Excess amount</t>
-  </si>
-  <si>
-    <t>Total customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,7 +554,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,7 +562,181 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Ink Free"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,53 +745,22 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
-      <name val="Ink Free"/>
-      <family val="4"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,18 +775,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -675,63 +982,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -740,7 +995,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -748,17 +1003,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -768,20 +1023,31 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,142 +1056,462 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
+      <color rgb="000000FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -941,26 +1527,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C7D3CF-E567-8133-95FE-743AAE0F5B56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:srcRect t="10891" r="23694" b="55494"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="680871"/>
-          <a:ext cx="3034206" cy="2970379"/>
+          <a:off x="0" y="676910"/>
+          <a:ext cx="3064510" cy="2950210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,26 +1566,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4D5139-5177-C2E6-F6BE-CE543EC83F7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:srcRect t="45617" r="23694" b="46660"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3" y="2"/>
-          <a:ext cx="3041648" cy="684124"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3072130" cy="680085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,26 +1605,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA30810A-96B1-19A1-516F-700C93F4FBB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
         <a:srcRect l="41813" t="16175" r="42212" b="37213"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="4177044"/>
-          <a:ext cx="3041650" cy="4992356"/>
+          <a:off x="6350" y="4149090"/>
+          <a:ext cx="3079750" cy="4958080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,26 +1644,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72964A2-C0C6-6D38-46F9-06904760D62B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
         <a:srcRect l="37610" t="4878" r="37630" b="6840"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="9404350"/>
-          <a:ext cx="4635500" cy="9297006"/>
+          <a:off x="19050" y="9339580"/>
+          <a:ext cx="4688840" cy="9232900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,26 +1683,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93989D10-B254-B1ED-0226-C3ACD2381E16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
         <a:srcRect l="37366" t="4321" r="37145" b="6593"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18840450"/>
-          <a:ext cx="4660900" cy="9163050"/>
+          <a:off x="0" y="18710910"/>
+          <a:ext cx="4714240" cy="9099550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1156,26 +1722,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2517C7A-5609-B65D-8D7A-BB6FD085C45B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
         <a:srcRect l="37158" t="4321" r="36971" b="11841"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28257500"/>
-          <a:ext cx="4730750" cy="8623300"/>
+          <a:off x="0" y="28063190"/>
+          <a:ext cx="4784090" cy="8563610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1199,26 +1761,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E5A095-6E89-B32C-DAAB-29642BAC2328}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
         <a:srcRect l="37574" t="4507" r="37215" b="5668"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37007249"/>
-          <a:ext cx="4743450" cy="9506501"/>
+          <a:off x="0" y="36753165"/>
+          <a:ext cx="4796790" cy="9440545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,26 +1800,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BFCAD5-C251-17DD-B19B-FF532BD16E53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
         <a:srcRect l="37331" t="4507" r="37388" b="4989"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="46797494"/>
-          <a:ext cx="4768850" cy="9603206"/>
+          <a:off x="6350" y="46474380"/>
+          <a:ext cx="4822190" cy="9537700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,27 +1839,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DC825D-FF94-D630-2C54-AFF9E6F9F455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="679450" y="2838450"/>
-          <a:ext cx="1682642" cy="341406"/>
+          <a:off x="687070" y="2819400"/>
+          <a:ext cx="1697355" cy="338455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,7 +1866,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1334,26 +1882,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8992D92C-BB44-D419-6868-ADF75CE1B28B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:srcRect t="4631" b="5790"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11398250"/>
-          <a:ext cx="4619048" cy="9213850"/>
+          <a:off x="0" y="11315700"/>
+          <a:ext cx="4601845" cy="9150350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,26 +1921,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8258EB03-F2BE-651B-C429-BA9AF7242117}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
         <a:srcRect t="4939" b="6099"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700" y="1104900"/>
-          <a:ext cx="4619048" cy="9150350"/>
+          <a:off x="12700" y="1093470"/>
+          <a:ext cx="4609465" cy="9086850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,26 +1960,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30430C6-B98D-481A-95C7-40B091ED3BBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
         <a:srcRect l="33818" t="62168" r="18478" b="33510"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1854200" y="23977600"/>
-          <a:ext cx="2203450" cy="444500"/>
+          <a:off x="1841500" y="23808690"/>
+          <a:ext cx="2199005" cy="440690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,7 +1988,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1468,19 +2004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405F16DC-75CC-6718-46CB-FA4955317AA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1488,7 +2018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="44450" y="44450"/>
-          <a:ext cx="2200847" cy="445047"/>
+          <a:ext cx="2223135" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,7 +2073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1576,26 +2106,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1628,23 +2141,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1786,203 +2282,203 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686674C8-3807-4144-A92B-58CABE686D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="G2:J266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="7:7">
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10">
       <c r="G4" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10">
       <c r="G7" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
       <c r="G8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF586BD5-2E27-4B71-ABDB-6E16F306B475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="3" ht="18" spans="1:1">
+      <c r="A3" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
       <c r="H21" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034E5947-B8E1-47A9-B59F-3C39BFFADB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0072E5D6-C2AE-4A6D-AA22-B2E2E20A6680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="13.81640625" customWidth="1"/>
+    <col min="1" max="6" width="13.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1998,12 +2494,12 @@
         <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2019,12 +2515,12 @@
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2040,12 +2536,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2061,12 +2557,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2082,12 +2578,12 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2103,649 +2599,646 @@
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="2:5">
+      <c r="B10" s="21">
         <f>SUM(B3:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="21">
         <f>SUM(C3:C9)</f>
         <v>300</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="21">
         <f t="shared" ref="D10:E10" si="1">SUM(D3:D9)</f>
         <v>145</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="21">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15"/>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAB94AA-79D6-49ED-BCDE-BC9E74E35F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="3.08984375" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.4537037037037" style="9" customWidth="1"/>
+    <col min="2" max="2" width="4.26851851851852" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.3611111111111" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.1759259259259" customWidth="1"/>
+    <col min="6" max="7" width="15.2685185185185" customWidth="1"/>
+    <col min="8" max="8" width="3.09259259259259" customWidth="1"/>
+    <col min="9" max="9" width="18.4537037037037" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>53</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>25</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="12">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="I2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="6:10">
+      <c r="F3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="29">
         <v>50</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="6:10">
+      <c r="F4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="29">
         <v>50</v>
       </c>
-      <c r="J3" s="12">
+      <c r="I4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="12">
-        <v>50</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="29">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="10:12">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="34">
         <v>1230</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="35">
         <v>80</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="35">
         <v>30</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="36">
         <f>IF(+D8&lt;$G$3,0,D8-$G$3)</f>
         <v>30</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="36">
         <f>IF(+E8&lt;$G$4,0,E8-$G$4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="29">
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="34">
         <v>3658</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="35">
         <v>30</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="35">
         <v>60</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="36">
         <f>IF(+D9&lt;$G$3,0,D9-$G$3)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="36">
         <f>IF(+E9&lt;$G$4,0,E9-$G$4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+    <row r="10" spans="1:7">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="34">
         <v>8547</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="37">
         <v>150</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="37">
         <v>150</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="36">
         <v>0</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+    <row r="11" spans="1:7">
+      <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="34">
         <v>4213</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="35">
         <v>70</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="35">
         <v>60</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="36">
         <f>IF(+D11&lt;$G$3,0,D11-$G$3)</f>
         <v>20</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="36">
         <f>IF(+E11&lt;$G$4,0,E11-$G$4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="29">
+    <row r="12" spans="1:7">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="34">
         <v>4063</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="35">
         <v>5</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="35">
         <v>10</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="36">
         <f>IF(+D12&lt;$G$3,0,D12-$G$3)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="36">
         <f>IF(+E12&lt;$G$4,0,E12-$G$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
+    <row r="13" spans="1:7">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="34">
         <v>2829</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="35">
         <v>60</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="35">
         <v>20</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="36">
         <f>IF(+D13&lt;$G$3,0,D13-$G$3)</f>
         <v>10</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="36">
         <f>IF(+E13&lt;$G$4,0,E13-$G$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="13">
+    <row r="15" ht="15.15" spans="4:7">
+      <c r="D15" s="21">
         <f>SUM(D8:D14)</f>
         <v>395</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="21">
         <f t="shared" ref="E15:G15" si="0">SUM(E8:E14)</f>
         <v>330</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="16" ht="15.15"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="J5:L7"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>'Back end'!$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{119ED76D-9151-4D68-B9FA-FD17288CED68}">
-          <x14:formula1>
-            <xm:f>'Back end'!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB9D171-9020-4E94-A4B3-0ABAB215FA73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.81481481481481" customWidth="1"/>
+    <col min="2" max="2" width="2.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="18.2685185185185" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="2.81640625" customWidth="1"/>
+    <col min="6" max="6" width="2.81481481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="34"/>
-      <c r="C8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="34"/>
-      <c r="C10" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="13"/>
+      <c r="C10" s="15">
         <v>1230</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="20">
         <f>+Activities!F8</f>
         <v>30</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="20">
         <f>+Activities!G8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
-      <c r="C11" s="36">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="13"/>
+      <c r="C11" s="15">
         <v>3658</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="20">
         <f>+Activities!F9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="20">
         <f>+Activities!G9</f>
         <v>10</v>
       </c>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
-      <c r="C12" s="36">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" hidden="1" spans="2:6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="15">
         <v>8547</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="20">
         <f>+Activities!F10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="20">
         <f>+Activities!G10</f>
         <v>0</v>
       </c>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="34"/>
-      <c r="C13" s="36">
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15">
         <v>4213</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="20">
         <f>+Activities!F11</f>
         <v>20</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="20">
         <f>+Activities!G11</f>
         <v>10</v>
       </c>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
-      <c r="C14" s="36">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" hidden="1" spans="2:6">
+      <c r="B14" s="13"/>
+      <c r="C14" s="15">
         <v>4063</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="20">
         <f>+Activities!F12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="20">
         <f>+Activities!G12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="36">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="13"/>
+      <c r="C15" s="15">
         <v>2829</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="20">
         <f>+Activities!F13</f>
         <v>10</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="20">
         <f>+Activities!G13</f>
         <v>0</v>
       </c>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="13">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="15.15" spans="2:6">
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="21">
         <f>SUM(D10:D16)</f>
         <v>60</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="21">
         <f>SUM(E10:E16)</f>
         <v>20</v>
       </c>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="15.15" spans="2:6">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>'Back end'!$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB54B07B-0066-4FC2-8BF4-2FA3A023093A}">
-          <x14:formula1>
-            <xm:f>'Back end'!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0675C7-5E4C-4FE3-AB92-40D06C1CA878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="11.90625" customWidth="1"/>
+    <col min="1" max="3" width="11.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:1">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="2:2">
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" hidden="1"/>
+    <row r="10" hidden="1" spans="2:2">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" hidden="1"/>
+    <row r="12" hidden="1" spans="3:4">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="2:4">
       <c r="B13">
         <v>1000</v>
       </c>
@@ -2756,9 +3249,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>45</v>
+    <row r="14" hidden="1" spans="2:4">
+      <c r="B14" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="6">
         <v>5</v>
@@ -2767,9 +3260,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>46</v>
+    <row r="15" hidden="1" spans="2:4">
+      <c r="B15" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -2778,9 +3271,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>47</v>
+    <row r="16" hidden="1" spans="2:4">
+      <c r="B16" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="6">
         <v>5</v>
@@ -2789,77 +3282,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="11"/>
+    <row r="17" hidden="1" spans="2:2">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD79D9D-EBD2-4021-AB99-F1D593B11B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="6" width="11.6328125" customWidth="1"/>
+    <col min="1" max="2" width="13.5462962962963" customWidth="1"/>
+    <col min="3" max="6" width="11.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6">
         <v>1230</v>
@@ -2875,9 +3369,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6">
         <v>3658</v>
@@ -2893,9 +3387,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6">
         <v>8547</v>
@@ -2911,9 +3405,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <v>4213</v>
@@ -2929,9 +3423,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6">
         <v>4063</v>
@@ -2947,9 +3441,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B12" s="6">
         <v>2829</v>
@@ -2965,9 +3459,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6">
         <v>6496</v>
@@ -2983,9 +3477,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6">
         <v>8516</v>
@@ -2998,9 +3492,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6">
         <v>8989</v>
@@ -3013,9 +3507,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6">
         <v>5987</v>
@@ -3029,61 +3523,55 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>'Back end'!$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8737627-9A89-488E-B486-ACDDE21BCBF6}">
-          <x14:formula1>
-            <xm:f>'Back end'!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575D0A99-BF8C-4CB1-8E0A-5AD5009E8D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.6296296296296" customWidth="1"/>
+    <col min="2" max="4" width="15.5462962962963" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="17.8148148148148" customWidth="1"/>
+    <col min="8" max="8" width="18.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:6">
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3091,70 +3579,70 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>9585</v>
@@ -3182,9 +3670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>9585</v>
@@ -3212,9 +3700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>9585</v>
@@ -3242,9 +3730,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>9585</v>
@@ -3272,9 +3760,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>9585</v>
@@ -3302,15 +3790,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4">
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3319,8 +3808,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A70BA085-4265-490D-8925-59AEC1C0784D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Apps formula (KB).xlsx
+++ b/Apps formula (KB).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9935" activeTab="4"/>
+    <workbookView windowWidth="7547" windowHeight="2543" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User interface" sheetId="5" r:id="rId1"/>
@@ -535,13 +535,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,16 +590,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,9 +604,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,7 +635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,19 +664,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,30 +689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +705,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,6 +720,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,18 +742,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,25 +780,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +816,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,115 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,6 +913,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,11 +1094,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,45 +1158,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1196,6 +1168,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,146 +1194,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2637,8 +2618,8 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2949,7 +2930,7 @@
   <sheetPr/>
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Apps formula (KB).xlsx
+++ b/Apps formula (KB).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7547" windowHeight="2543" activeTab="5"/>
+    <workbookView windowWidth="22103" windowHeight="9935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User interface" sheetId="5" r:id="rId1"/>
@@ -535,11 +535,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -590,7 +590,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,29 +613,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,8 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,19 +657,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,8 +681,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,6 +706,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,21 +733,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -742,12 +742,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -780,7 +780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,43 +852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,37 +894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,43 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,19 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,24 +1111,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,6 +1144,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1180,25 +1191,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,130 +1210,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,7 +1347,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2618,8 +2618,8 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2930,7 +2930,7 @@
   <sheetPr/>
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
